--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_8_1.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_8_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1376 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_24</t>
+          <t>model_8_1_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999970155863568</v>
+        <v>0.6705083076889345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6836573984450194</v>
+        <v>0.3359188466502872</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999930885460447</v>
+        <v>0.5047558102302985</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999938139337998</v>
+        <v>-1.23936973357446</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999950538109654</v>
+        <v>0.3661335926667462</v>
       </c>
       <c r="G2" t="n">
-        <v>1.771676858584111e-06</v>
+        <v>0.1956005018558401</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1877946335718834</v>
+        <v>0.3942272594405157</v>
       </c>
       <c r="I2" t="n">
-        <v>1.45658488185713e-06</v>
+        <v>0.2053097886720114</v>
       </c>
       <c r="J2" t="n">
-        <v>4.480232126437803e-06</v>
+        <v>0.3338706900866441</v>
       </c>
       <c r="K2" t="n">
-        <v>2.968408504147466e-06</v>
+        <v>0.2695902393793277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008781874014385771</v>
+        <v>0.2533464011612001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001331043522422956</v>
+        <v>0.442267455117195</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00000174697384</v>
+        <v>0.2811090349576755</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001387708800812438</v>
+        <v>0.4610956963013776</v>
       </c>
       <c r="P2" t="n">
-        <v>156.4871681642529</v>
+        <v>29.26336191131912</v>
       </c>
       <c r="Q2" t="n">
-        <v>235.714096780686</v>
+        <v>45.10874763460572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_0</t>
+          <t>model_8_1_16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994665780192991</v>
+        <v>0.6738729532938733</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6834745876764061</v>
+        <v>0.3341450119473075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9963699462874975</v>
+        <v>0.5017766995494974</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994679474466048</v>
+        <v>-1.212458512362829</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9990415840617146</v>
+        <v>0.3693985018854825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003166623303738653</v>
+        <v>0.1936031028796263</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1879031579411463</v>
+        <v>0.3952802843458737</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007650316984269614</v>
+        <v>0.2065448169609655</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003853367981397179</v>
+        <v>0.3298584593851689</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005751842482833397</v>
+        <v>0.2682016381730672</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01328091101997552</v>
+        <v>0.2485998806908535</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0177950085803257</v>
+        <v>0.4400035259854475</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000312247013093</v>
+        <v>0.2884500799139055</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01855257893633615</v>
+        <v>0.4587353870195122</v>
       </c>
       <c r="P3" t="n">
-        <v>146.1153491113755</v>
+        <v>29.2838901539946</v>
       </c>
       <c r="Q3" t="n">
-        <v>225.3422777278086</v>
+        <v>45.1292758772812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_18</t>
+          <t>model_8_1_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999896125542909</v>
+        <v>0.6700294719353816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6834549216672978</v>
+        <v>0.3329784154618565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999529966581933</v>
+        <v>0.5164769408939549</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999861577477656</v>
+        <v>-1.309956861465205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999833946233107</v>
+        <v>0.3594740075282132</v>
       </c>
       <c r="G4" t="n">
-        <v>6.16643648723603e-06</v>
+        <v>0.1958847594437766</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1879148325336802</v>
+        <v>0.3959728264139816</v>
       </c>
       <c r="I4" t="n">
-        <v>9.905926815993991e-06</v>
+        <v>0.2004506446189102</v>
       </c>
       <c r="J4" t="n">
-        <v>1.002519228788419e-05</v>
+        <v>0.3443946213280027</v>
       </c>
       <c r="K4" t="n">
-        <v>9.965559551939089e-06</v>
+        <v>0.2724226329734564</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00180195538183847</v>
+        <v>0.250303308321366</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002483231057963803</v>
+        <v>0.4425887023453904</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000006080456025</v>
+        <v>0.2800643024044691</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002588947345098261</v>
+        <v>0.4614306196891508</v>
       </c>
       <c r="P4" t="n">
-        <v>153.9927788832778</v>
+        <v>29.26045750938124</v>
       </c>
       <c r="Q4" t="n">
-        <v>233.2197074997109</v>
+        <v>45.10584323266784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_20</t>
+          <t>model_8_1_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999993241641297</v>
+        <v>0.6721789476614674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6834515606865814</v>
+        <v>0.3319056372246701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999736619919187</v>
+        <v>0.5101063769855009</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999899001300737</v>
+        <v>-1.26957091109324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999892812541308</v>
+        <v>0.3634478049213522</v>
       </c>
       <c r="G5" t="n">
-        <v>4.012053671975997e-06</v>
+        <v>0.1946087378002556</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1879168277570203</v>
+        <v>0.3966096739171823</v>
       </c>
       <c r="I5" t="n">
-        <v>5.550719810624883e-06</v>
+        <v>0.2030916430531866</v>
       </c>
       <c r="J5" t="n">
-        <v>7.314787823470911e-06</v>
+        <v>0.3383734248644021</v>
       </c>
       <c r="K5" t="n">
-        <v>6.432753817047897e-06</v>
+        <v>0.2707325339587944</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001421272741030666</v>
+        <v>0.2483248345601773</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002003011151236058</v>
+        <v>0.441144803664574</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000003956112411</v>
+        <v>0.2847540676250198</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002088283482748867</v>
+        <v>0.4599252512522097</v>
       </c>
       <c r="P5" t="n">
-        <v>154.8524146201873</v>
+        <v>29.27352841780176</v>
       </c>
       <c r="Q5" t="n">
-        <v>234.0793432366203</v>
+        <v>45.11891414108837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_17</t>
+          <t>model_8_1_11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999870630874289</v>
+        <v>0.6697937284269644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6834513245703493</v>
+        <v>0.3309183342746252</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999377266157966</v>
+        <v>0.5200864221301198</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999835666706055</v>
+        <v>-1.334171493322583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999791500098633</v>
+        <v>0.356988958950795</v>
       </c>
       <c r="G6" t="n">
-        <v>7.679910147750083e-06</v>
+        <v>0.1960247069739624</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1879169679258154</v>
+        <v>0.3971957795975957</v>
       </c>
       <c r="I6" t="n">
-        <v>1.312407932692617e-05</v>
+        <v>0.1989542881848101</v>
       </c>
       <c r="J6" t="n">
-        <v>1.19017688971564e-05</v>
+        <v>0.3480048138420868</v>
       </c>
       <c r="K6" t="n">
-        <v>1.251292411204129e-05</v>
+        <v>0.2734795510134485</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002027597054490402</v>
+        <v>0.2490631459224566</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002771265080743826</v>
+        <v>0.4427467752270618</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000007572826871</v>
+        <v>0.2795499529315587</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002889243572540654</v>
+        <v>0.4615954220606509</v>
       </c>
       <c r="P6" t="n">
-        <v>153.5538054207697</v>
+        <v>29.25902914341281</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.7807340372027</v>
+        <v>45.10441486669941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_19</t>
+          <t>model_8_1_14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999916321787067</v>
+        <v>0.6711027987945422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.683451161239423</v>
+        <v>0.3306236989724494</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999646570076531</v>
+        <v>0.5151516193157257</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999882315482667</v>
+        <v>-1.303591703772061</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999866933115612</v>
+        <v>0.3599437358852948</v>
       </c>
       <c r="G7" t="n">
-        <v>4.967500190802198e-06</v>
+        <v>0.1952475862548729</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1879170648861088</v>
+        <v>0.3973706878405496</v>
       </c>
       <c r="I7" t="n">
-        <v>7.448514981876946e-06</v>
+        <v>0.2010000735648111</v>
       </c>
       <c r="J7" t="n">
-        <v>8.523251098166741e-06</v>
+        <v>0.3434456312797501</v>
       </c>
       <c r="K7" t="n">
-        <v>7.985883040021844e-06</v>
+        <v>0.2722228524222806</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001600200711095778</v>
+        <v>0.2482553739394273</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002228788951606275</v>
+        <v>0.4418682906193574</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000004898236855</v>
+        <v>0.2824061064608193</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002323673111505322</v>
+        <v>0.4606795385444826</v>
       </c>
       <c r="P7" t="n">
-        <v>154.4251876482207</v>
+        <v>29.26697370533951</v>
       </c>
       <c r="Q7" t="n">
-        <v>233.6521162646537</v>
+        <v>45.11235942862611</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_16</t>
+          <t>model_8_1_12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999838721584401</v>
+        <v>0.6699460041164942</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6834457878456044</v>
+        <v>0.3300223878710578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999183277025543</v>
+        <v>0.5201678724569998</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999803190053584</v>
+        <v>-1.335734096703264</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999737842521329</v>
+        <v>0.3567547721017335</v>
       </c>
       <c r="G8" t="n">
-        <v>9.574183436413718e-06</v>
+        <v>0.1959343095466903</v>
       </c>
       <c r="H8" t="n">
-        <v>0.187920254764798</v>
+        <v>0.3977276520856228</v>
       </c>
       <c r="I8" t="n">
-        <v>1.721238895561508e-05</v>
+        <v>0.1989205219140603</v>
       </c>
       <c r="J8" t="n">
-        <v>1.42538766349085e-05</v>
+        <v>0.3482377845129044</v>
       </c>
       <c r="K8" t="n">
-        <v>1.573313279526179e-05</v>
+        <v>0.2735791532134824</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002277166475514655</v>
+        <v>0.2485342556358798</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00309421774224338</v>
+        <v>0.4426446764016148</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000009440687742</v>
+        <v>0.2798821907996237</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003225944997444416</v>
+        <v>0.4614889766768309</v>
       </c>
       <c r="P8" t="n">
-        <v>153.112880614653</v>
+        <v>29.25995166260553</v>
       </c>
       <c r="Q8" t="n">
-        <v>232.339809231086</v>
+        <v>45.10533738589213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_21</t>
+          <t>model_8_1_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999994516452053</v>
+        <v>0.6703877337653237</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6834067653460156</v>
+        <v>0.3300073294811467</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999805060842761</v>
+        <v>0.5183802426875218</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999912403750693</v>
+        <v>-1.324730945516374</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999912916159763</v>
+        <v>0.3578121048764406</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25527093830348e-06</v>
+        <v>0.1956720797454178</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1879434202062381</v>
+        <v>0.3977365913963625</v>
       </c>
       <c r="I9" t="n">
-        <v>4.108331346134683e-06</v>
+        <v>0.1996616066108157</v>
       </c>
       <c r="J9" t="n">
-        <v>6.344121087657895e-06</v>
+        <v>0.3465973096842879</v>
       </c>
       <c r="K9" t="n">
-        <v>5.226254195410154e-06</v>
+        <v>0.2731294581475518</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001266521385743904</v>
+        <v>0.2483155098598549</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00180423694073242</v>
+        <v>0.4423483692130195</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000003209881725</v>
+        <v>0.2808459645788881</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001881047042584748</v>
+        <v>0.4611800550777767</v>
       </c>
       <c r="P9" t="n">
-        <v>155.2704700963875</v>
+        <v>29.26263016681422</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.4973987128206</v>
+        <v>45.10801589010082</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_1</t>
+          <t>model_8_1_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995698388500425</v>
+        <v>0.6506982275613509</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6833927809384757</v>
+        <v>0.3286591078510546</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9970914723859716</v>
+        <v>0.5655466622028311</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9995695386441474</v>
+        <v>-1.767739454797047</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9992295729114</v>
+        <v>0.3031517231784121</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002553622406089326</v>
+        <v>0.2073606211704771</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1879517219546488</v>
+        <v>0.3985369539961271</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000612970494849222</v>
+        <v>0.1801081664632257</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0003117598055467287</v>
+        <v>0.4126460529937303</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0004623645205716284</v>
+        <v>0.296377109728478</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01192710444772199</v>
+        <v>0.2662164610715579</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01598005759091414</v>
+        <v>0.4553686651170424</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000251801648756</v>
+        <v>0.2378870419520384</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01666036172583886</v>
+        <v>0.4747546519341619</v>
       </c>
       <c r="P10" t="n">
-        <v>146.5456549388538</v>
+        <v>29.14659174041783</v>
       </c>
       <c r="Q10" t="n">
-        <v>225.7725835552868</v>
+        <v>44.99197746370444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_23</t>
+          <t>model_8_1_8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999963100591259</v>
+        <v>0.6647953265708</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6833467856465962</v>
+        <v>0.3231362531509567</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999892268106896</v>
+        <v>0.5258094586833471</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999931863175937</v>
+        <v>-1.414084406138921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999939970527774</v>
+        <v>0.3457715537603907</v>
       </c>
       <c r="G11" t="n">
-        <v>2.190508299991895e-06</v>
+        <v>0.198991974235499</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1879790267468016</v>
+        <v>0.4018155591210059</v>
       </c>
       <c r="I11" t="n">
-        <v>2.270443351082481e-06</v>
+        <v>0.1965817304656541</v>
       </c>
       <c r="J11" t="n">
-        <v>4.934780493473735e-06</v>
+        <v>0.3599191390867337</v>
       </c>
       <c r="K11" t="n">
-        <v>3.602611922278108e-06</v>
+        <v>0.2782504347761939</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001002499054725235</v>
+        <v>0.2558210799483189</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001480036587382858</v>
+        <v>0.446085164778542</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00000215996539</v>
+        <v>0.2686443488817455</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001543044809005846</v>
+        <v>0.4650759337667567</v>
       </c>
       <c r="P11" t="n">
-        <v>156.0627538812282</v>
+        <v>29.22898157109164</v>
       </c>
       <c r="Q11" t="n">
-        <v>235.2896824976612</v>
+        <v>45.07436729437824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_22</t>
+          <t>model_8_1_6</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999955289433896</v>
+        <v>0.6384677533545011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6833314112933426</v>
+        <v>0.2806921938924125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999855311441911</v>
+        <v>0.6175795067815635</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999923566494547</v>
+        <v>-2.212661526046065</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999928475360328</v>
+        <v>0.250527667478308</v>
       </c>
       <c r="G12" t="n">
-        <v>2.654212343500787e-06</v>
+        <v>0.2146211589886391</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1879881536270304</v>
+        <v>0.4270121861847694</v>
       </c>
       <c r="I12" t="n">
-        <v>3.049302905820304e-06</v>
+        <v>0.1585372878034863</v>
       </c>
       <c r="J12" t="n">
-        <v>5.535664113232787e-06</v>
+        <v>0.4789800918688472</v>
       </c>
       <c r="K12" t="n">
-        <v>4.292483509526546e-06</v>
+        <v>0.3187586898361668</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001125288459898304</v>
+        <v>0.2531805701002094</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00162917535689096</v>
+        <v>0.463272229891496</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000002617203869</v>
+        <v>0.2112023709552753</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001698532724691721</v>
+        <v>0.4829946878236986</v>
       </c>
       <c r="P12" t="n">
-        <v>155.6787252327999</v>
+        <v>29.07776171261677</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.9056538492329</v>
+        <v>44.92314743590337</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_2</t>
+          <t>model_8_1_5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999653193081642</v>
+        <v>0.6248165527350913</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6833251666683172</v>
+        <v>0.2511716658166206</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9976715701419632</v>
+        <v>0.6490545695146465</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9996515992967566</v>
+        <v>-2.564333004179887</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9993809425269446</v>
+        <v>0.2042288304267942</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002058795680161146</v>
+        <v>0.2227251013774824</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1879918607061992</v>
+        <v>0.4445368468709727</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0004907152317958241</v>
+        <v>0.1454888995302739</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002523277270275939</v>
+        <v>0.5314112725390067</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000371521479411709</v>
+        <v>0.3384500860346403</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01070911544775785</v>
+        <v>0.2525948088302521</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01434850403408364</v>
+        <v>0.4719376032670869</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000203008927819</v>
+        <v>0.1814179332401993</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01495934955631262</v>
+        <v>0.4920289640836842</v>
       </c>
       <c r="P13" t="n">
-        <v>146.9764383628267</v>
+        <v>29.00363399441336</v>
       </c>
       <c r="Q13" t="n">
-        <v>226.2033669792597</v>
+        <v>44.84901971769997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_3</t>
+          <t>model_8_1_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9997204779301706</v>
+        <v>0.6850262585561055</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6832691368941335</v>
+        <v>0.2365601164587855</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9981378026377944</v>
+        <v>0.4226874756196414</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997179650274548</v>
+        <v>-0.8929540417326529</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9995028500777844</v>
+        <v>0.3868538681664263</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001659363753754535</v>
+        <v>0.1869820190782648</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1880251224005149</v>
+        <v>0.4532108937558506</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003924570057758865</v>
+        <v>0.2393322624004023</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002042626289273485</v>
+        <v>0.2822231017683657</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002983598173516175</v>
+        <v>0.260777682084384</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00961371990166913</v>
+        <v>0.2458063554775421</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01288162937579922</v>
+        <v>0.4324141753900591</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000163622675022</v>
+        <v>0.3127845641224122</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01343002700697588</v>
+        <v>0.4508229420571567</v>
       </c>
       <c r="P14" t="n">
-        <v>147.4078122478988</v>
+        <v>29.35348564282478</v>
       </c>
       <c r="Q14" t="n">
-        <v>226.6347408643318</v>
+        <v>45.19887136611139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_15</t>
+          <t>model_8_1_4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999797051415347</v>
+        <v>0.5992107822462582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6832252981031236</v>
+        <v>0.2002696622798056</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998926072627797</v>
+        <v>0.6939358170453166</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999758205026915</v>
+        <v>-3.135268123610804</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999665537880601</v>
+        <v>0.1260326023675958</v>
       </c>
       <c r="G15" t="n">
-        <v>1.204790467724959e-05</v>
+        <v>0.2379257928513444</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1880511470005956</v>
+        <v>0.4747544750224865</v>
       </c>
       <c r="I15" t="n">
-        <v>2.26329566065076e-05</v>
+        <v>0.1268828065438159</v>
       </c>
       <c r="J15" t="n">
-        <v>1.751189805225489e-05</v>
+        <v>0.616532768762338</v>
       </c>
       <c r="K15" t="n">
-        <v>2.007242732938125e-05</v>
+        <v>0.3717077876530769</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002548562616390689</v>
+        <v>0.2504155945831015</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003471009172740629</v>
+        <v>0.4877763758643344</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00001187991715</v>
+        <v>0.1255507976281999</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003618777219203721</v>
+        <v>0.5085420260211757</v>
       </c>
       <c r="P15" t="n">
-        <v>152.6532395977058</v>
+        <v>28.871592897342</v>
       </c>
       <c r="Q15" t="n">
-        <v>231.8801682141388</v>
+        <v>44.7169786206286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_4</t>
+          <t>model_8_1_3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9997749898599746</v>
+        <v>0.5438893836342024</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6832246721126262</v>
+        <v>0.1054954329433633</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9985152223688729</v>
+        <v>0.7470071201994067</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997718519050114</v>
+        <v>-4.111057895498803</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9996016338824197</v>
+        <v>-0.01913234430489719</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001335757390510084</v>
+        <v>0.270766964827448</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1880515186155962</v>
+        <v>0.5310165515901331</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003129160180234495</v>
+        <v>0.1048814216508777</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001652352871226135</v>
+        <v>0.7620145977052147</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002390756525730315</v>
+        <v>0.4334480096780463</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008624198785482656</v>
+        <v>0.2489177980312224</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01155749709284014</v>
+        <v>0.5203527311617072</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000131713252698</v>
+        <v>0.004849564292805253</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01204952367139954</v>
+        <v>0.5425052242059097</v>
       </c>
       <c r="P16" t="n">
-        <v>147.841683814563</v>
+        <v>28.61299347284308</v>
       </c>
       <c r="Q16" t="n">
-        <v>227.068612430996</v>
+        <v>44.45837919612968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_5</t>
+          <t>model_8_1_2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998188918674434</v>
+        <v>0.4931597063564732</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6831904169971877</v>
+        <v>0.03340426467319291</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9988171082282647</v>
+        <v>0.7796459766518827</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998153096461166</v>
+        <v>-5.010036846150444</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996808622863778</v>
+        <v>-0.160792443517346</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001075136109495325</v>
+        <v>0.3008822926674616</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1880718539318644</v>
+        <v>0.5738129832516229</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002492937495853309</v>
+        <v>0.09135056786363777</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001337612030213107</v>
+        <v>0.896044596471138</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001915274763033208</v>
+        <v>0.4936975821673878</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007735722418861096</v>
+        <v>0.2521281851394427</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01036887703416009</v>
+        <v>0.5485273855218732</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000106014516619</v>
+        <v>-0.1058333679495129</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01081030159603875</v>
+        <v>0.5718793319317627</v>
       </c>
       <c r="P17" t="n">
-        <v>148.2757862098547</v>
+        <v>28.40207228995169</v>
       </c>
       <c r="Q17" t="n">
-        <v>227.5027148262877</v>
+        <v>44.24745801323829</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_14</t>
+          <t>model_8_1_1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999747255612087</v>
+        <v>0.3936944630638853</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6831699214877199</v>
+        <v>-0.002557089477922991</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998617424614028</v>
+        <v>0.7368373142876555</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999706657363834</v>
+        <v>-6.984099103135034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999580240721659</v>
+        <v>-0.5276565114334504</v>
       </c>
       <c r="G18" t="n">
-        <v>1.500399866541936e-05</v>
+        <v>0.3599291577607277</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1880840209516444</v>
+        <v>0.5951611965253378</v>
       </c>
       <c r="I18" t="n">
-        <v>2.91376954586228e-05</v>
+        <v>0.1090974442629713</v>
       </c>
       <c r="J18" t="n">
-        <v>2.124521561951826e-05</v>
+        <v>1.190360232755738</v>
       </c>
       <c r="K18" t="n">
-        <v>2.519145553907053e-05</v>
+        <v>0.6497288385093547</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002849959527190854</v>
+        <v>0.2821661614584855</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003873499537294327</v>
+        <v>0.599940961896025</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000014794793439</v>
+        <v>-0.3228484442242501</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004038402431846383</v>
+        <v>0.6254816906929374</v>
       </c>
       <c r="P18" t="n">
-        <v>152.2143876293859</v>
+        <v>28.04369610178894</v>
       </c>
       <c r="Q18" t="n">
-        <v>231.441316245819</v>
+        <v>43.88908182507555</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_13</t>
+          <t>model_8_1_0</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999684577123054</v>
+        <v>0.3459106754249176</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6831687128673164</v>
+        <v>-0.04970971035315519</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998212729761727</v>
+        <v>0.734669233144596</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999643852643122</v>
+        <v>-7.876234377716129</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999947128686082</v>
+        <v>-0.6850807599638664</v>
       </c>
       <c r="G19" t="n">
-        <v>1.87248645313933e-05</v>
+        <v>0.3882956782553663</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1880847384409256</v>
+        <v>0.6231530291640384</v>
       </c>
       <c r="I19" t="n">
-        <v>3.766661581961248e-05</v>
+        <v>0.1099962499238965</v>
       </c>
       <c r="J19" t="n">
-        <v>2.579382079635494e-05</v>
+        <v>1.323369898515394</v>
       </c>
       <c r="K19" t="n">
-        <v>3.173021830798371e-05</v>
+        <v>0.7166830742196451</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003197050540243858</v>
+        <v>0.2894549118113545</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004327223651649323</v>
+        <v>0.6231337563118903</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000018463778163</v>
+        <v>-0.4271039808910888</v>
       </c>
       <c r="O19" t="n">
-        <v>0.00451144252108787</v>
+        <v>0.6496618503827891</v>
       </c>
       <c r="P19" t="n">
-        <v>151.7713165264514</v>
+        <v>27.8919763444359</v>
       </c>
       <c r="Q19" t="n">
-        <v>230.9982451428845</v>
+        <v>43.7373620677225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_6</t>
+          <t>model_8_1_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998542647169966</v>
+        <v>0.677596891926184</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6831666545033316</v>
+        <v>-0.2351213516033852</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9990589689035823</v>
+        <v>0.4896649072736148</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998503257378412</v>
+        <v>-1.266172477170574</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997444576009152</v>
+        <v>0.3540810145121481</v>
       </c>
       <c r="G20" t="n">
-        <v>8.651475942723768e-05</v>
+        <v>0.1913924120417139</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1880859603747037</v>
+        <v>0.7332213887760359</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001983217536108542</v>
+        <v>0.2115659147627533</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001084009475683737</v>
+        <v>0.3378667477123611</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000153361350589614</v>
+        <v>0.2747163312375571</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006936605744504888</v>
+        <v>0.2474337604234978</v>
       </c>
       <c r="M20" t="n">
-        <v>0.009301331056748689</v>
+        <v>0.4374841849046819</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000085308458343</v>
+        <v>0.2965750369298561</v>
       </c>
       <c r="O20" t="n">
-        <v>0.009697307976244124</v>
+        <v>0.4561087923731835</v>
       </c>
       <c r="P20" t="n">
-        <v>148.7103910587307</v>
+        <v>29.3068588905086</v>
       </c>
       <c r="Q20" t="n">
-        <v>227.9373196751637</v>
+        <v>45.1522446137952</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_7</t>
+          <t>model_8_1_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998827141905261</v>
+        <v>0.6932613431940318</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6831436522649749</v>
+        <v>-4.750851014432805</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999251988347488</v>
+        <v>0.4887324458290082</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998785464061267</v>
+        <v>-1.04498239757174</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997953768697995</v>
+        <v>0.3923953082208737</v>
       </c>
       <c r="G21" t="n">
-        <v>6.962592298690105e-05</v>
+        <v>0.1820933171000583</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1880996154970372</v>
+        <v>3.413953585995913</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001576430186125197</v>
+        <v>0.2119524785349118</v>
       </c>
       <c r="J21" t="n">
-        <v>8.796224862944392e-05</v>
+        <v>0.3048892168433939</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001228026336209818</v>
+        <v>0.2584208476891528</v>
       </c>
       <c r="L21" t="n">
-        <v>0.006220020659134998</v>
+        <v>0.2407749332980579</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00834421494131719</v>
+        <v>0.4267239354665476</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000068655107985</v>
+        <v>0.3307520215142512</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008699445446275211</v>
+        <v>0.4448904568396808</v>
       </c>
       <c r="P21" t="n">
-        <v>149.1447472065207</v>
+        <v>29.40647198397626</v>
       </c>
       <c r="Q21" t="n">
-        <v>228.3716758229537</v>
+        <v>45.25185770726286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_12</t>
+          <t>model_8_1_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999607758482654</v>
+        <v>0.6924750640296924</v>
       </c>
       <c r="C22" t="n">
-        <v>0.683137241951763</v>
+        <v>-15.04404328999821</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997722519545776</v>
+        <v>0.2433640966533798</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999566062378094</v>
+        <v>-0.516580431610685</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999338275693213</v>
+        <v>0.365426319756417</v>
       </c>
       <c r="G22" t="n">
-        <v>2.328515086482729e-05</v>
+        <v>0.1825600863775015</v>
       </c>
       <c r="H22" t="n">
-        <v>0.188103420935871</v>
+        <v>9.524437163525659</v>
       </c>
       <c r="I22" t="n">
-        <v>4.799776747181919e-05</v>
+        <v>0.3136730538726551</v>
       </c>
       <c r="J22" t="n">
-        <v>3.142774764461768e-05</v>
+        <v>0.2261090465242389</v>
       </c>
       <c r="K22" t="n">
-        <v>3.971275755821843e-05</v>
+        <v>0.269891050198447</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003573038532686445</v>
+        <v>0.2369911911568967</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004825468978744687</v>
+        <v>0.4272705072638427</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000022960479064</v>
+        <v>0.3290365033375107</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005030899183267697</v>
+        <v>0.4454602973299464</v>
       </c>
       <c r="P22" t="n">
-        <v>151.3353894049891</v>
+        <v>29.40135183944532</v>
       </c>
       <c r="Q22" t="n">
-        <v>230.5623180214222</v>
+        <v>45.24673756273192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_11</t>
+          <t>model_8_1_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999511789103345</v>
+        <v>0.6878379318969126</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6831306841972459</v>
+        <v>-48.37957003223966</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997100430640741</v>
+        <v>0.4500098917860756</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999469501511208</v>
+        <v>-1.345163749678101</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999170781044262</v>
+        <v>0.3209094991967398</v>
       </c>
       <c r="G23" t="n">
-        <v>2.89823077867234e-05</v>
+        <v>0.1853128883251976</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1881073139022325</v>
+        <v>29.31384585749481</v>
       </c>
       <c r="I23" t="n">
-        <v>6.110825478920422e-05</v>
+        <v>0.2280054066693983</v>
       </c>
       <c r="J23" t="n">
-        <v>3.842112734632098e-05</v>
+        <v>0.3496436643454237</v>
       </c>
       <c r="K23" t="n">
-        <v>4.976479028217433e-05</v>
+        <v>0.288824535507411</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003994730019965303</v>
+        <v>0.2315218406097937</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005383521875754142</v>
+        <v>0.4304798349809171</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000028578198829</v>
+        <v>0.3189191241387184</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005612709547431595</v>
+        <v>0.4488062527721609</v>
       </c>
       <c r="P23" t="n">
-        <v>150.8976499809399</v>
+        <v>29.37141918855378</v>
       </c>
       <c r="Q23" t="n">
-        <v>230.124578597373</v>
+        <v>45.21680491184038</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_8</t>
+          <t>model_8_1_21</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999057310182343</v>
+        <v>0.6957570219878354</v>
       </c>
       <c r="C24" t="n">
-        <v>0.68312885801828</v>
+        <v>-57.75426365898835</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9994075483571994</v>
+        <v>0.4772019693824205</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999014305889495</v>
+        <v>-1.172599984937998</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998364988660563</v>
+        <v>0.3644077926569756</v>
       </c>
       <c r="G24" t="n">
-        <v>5.596213978408865e-05</v>
+        <v>0.180611774360346</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1881083980009534</v>
+        <v>34.87906896001128</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001248588374785075</v>
+        <v>0.2167325844532415</v>
       </c>
       <c r="J24" t="n">
-        <v>7.138847658249421e-05</v>
+        <v>0.3239158971286343</v>
       </c>
       <c r="K24" t="n">
-        <v>9.812365703050086e-05</v>
+        <v>0.2703242407909379</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005572410958069264</v>
+        <v>0.2305276323175741</v>
       </c>
       <c r="M24" t="n">
-        <v>0.007480784703765284</v>
+        <v>0.4249844401391021</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000055181842985</v>
+        <v>0.33619713888255</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007799257195963729</v>
+        <v>0.4430769075948942</v>
       </c>
       <c r="P24" t="n">
-        <v>149.5816703423104</v>
+        <v>29.42281088866137</v>
       </c>
       <c r="Q24" t="n">
-        <v>228.8085989587435</v>
+        <v>45.26819661194797</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_1_10</t>
+          <t>model_8_1_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999391918175327</v>
+        <v>0.6878664182351788</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6831255906359708</v>
+        <v>-58.21569153530788</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9996311124032371</v>
+        <v>0.3955526626193143</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999349545876578</v>
+        <v>-1.260996457056007</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998959814709005</v>
+        <v>0.3091212713302388</v>
       </c>
       <c r="G25" t="n">
-        <v>3.60983638893421e-05</v>
+        <v>0.185295977604257</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1881103376602358</v>
+        <v>35.15299248004094</v>
       </c>
       <c r="I25" t="n">
-        <v>7.774284543177579e-05</v>
+        <v>0.2505813448486837</v>
       </c>
       <c r="J25" t="n">
-        <v>4.710886314836089e-05</v>
+        <v>0.3370950478087483</v>
       </c>
       <c r="K25" t="n">
-        <v>6.242573508808946e-05</v>
+        <v>0.293838196328716</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004465794379119641</v>
+        <v>0.2300320941220811</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006008191399193446</v>
+        <v>0.430460192821888</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000035595033639</v>
+        <v>0.318981276149481</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006263972545727888</v>
+        <v>0.448785774405757</v>
       </c>
       <c r="P25" t="n">
-        <v>150.4585260305547</v>
+        <v>29.37160170680962</v>
       </c>
       <c r="Q25" t="n">
-        <v>229.6854546469878</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_8_1_9</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9999242392511051</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6831212784283958</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.999531317864496</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9999199672286898</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9998694156846021</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4.497485323798484e-05</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.18811289757293</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.877448614935528e-05</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.796339411605517e-05</v>
-      </c>
-      <c r="K26" t="n">
-        <v>7.836894013270524e-05</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.004990913444483163</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.00670632934159849</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.000044347755451</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.006991831665685885</v>
-      </c>
-      <c r="P26" t="n">
-        <v>150.018814082648</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>229.245742699081</v>
+        <v>45.21698743009622</v>
       </c>
     </row>
   </sheetData>
